--- a/visa_bot_questions_list.xlsx
+++ b/visa_bot_questions_list.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leo/visa_bot_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24860" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24860" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="visa_bot_questions_list.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="working on keywords" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">visa_bot_questions_list.csv!$A$1:$H$47</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16600" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16767" uniqueCount="158">
   <si>
     <t>Visa Type</t>
   </si>
@@ -410,12 +411,136 @@
   <si>
     <t>有60天的Grace period。</t>
   </si>
+  <si>
+    <t>什麼是OPT？opt的定義？</t>
+  </si>
+  <si>
+    <t>OPT,定義</t>
+  </si>
+  <si>
+    <t>OPT是Optional Practical Training的簡稱。持有F1簽證的大學生或碩、博士學生完成了9個月以上的學業後，可以在相關專業領域進行實習訓練（工作）的工作許可。可細分為pre-completion OPT和post-completion OPT。</t>
+  </si>
+  <si>
+    <t>opt,pre-completion OPT,定義</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,定義,post-OPT</t>
+  </si>
+  <si>
+    <t>opt,pre-completion OPT,post-completion OPT,差別</t>
+  </si>
+  <si>
+    <t>OPT可以做什麼工作？OPT有工作內容限制嗎？</t>
+  </si>
+  <si>
+    <t>OPT,工作內容,限制,工作,領域</t>
+  </si>
+  <si>
+    <t>OPT,簽證</t>
+  </si>
+  <si>
+    <t>什麼是失業天數？找工作期限？</t>
+  </si>
+  <si>
+    <t>OPT,失業天數,找工作期限,天數</t>
+  </si>
+  <si>
+    <t>誰可以申請post-OPT？post-OPT的申請資格？post-OPT的申請限制？</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,資格,限制,申請</t>
+  </si>
+  <si>
+    <t>1.不需要先找到工作
+2.需要保有全職學生身份至少一年
+3.現在持有F1簽證
+4.要確定能準時畢業
+5.同等學位只能申請一次OPT
+6.如果已畢業、並離開美國，即失去申請資格</t>
+  </si>
+  <si>
+    <t>post-OPT要怎麼申請？申請流程？要如何準備申請？</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,申請,流程,準備</t>
+  </si>
+  <si>
+    <t>申請Post-OPT須準備：
+1.申請費用$410（各大學可能另有規費，請與你的學校聯絡以取得更多資訊）。
+2. I-765表格。
+3. G-1145表格。
+4.所有I-20的複印本。
+5. F-1簽證的複印本。
+6.最近的I-94複印本。
+7.護照照片頁的複印本。
+8.兩張護照樣式大頭照。
+9.如果以前曾有工作許可卡（EAD），也須附上複印本。</t>
+  </si>
+  <si>
+    <t>post-OPT要什麼時候申請？的申請時間？</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,時候,時間,申請</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,最早,申請,時間</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,最晚,申請,時間</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,申請,多久,時間</t>
+  </si>
+  <si>
+    <t>一般post-OPT需要三到四個月的審核時間。1.準備、填寫表格，並得到系辦認可（簽名）。（通常需一週）
+2.大學準備新的I-20。（通常需一週）
+3.USCIS審核OPT申請。（通常需九十天）</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,開始,日期</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,拒絕,補件</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,搬家,改地址,地址</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,急件,加速,審核時間</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,離境,開始前,生效前,未畢業,回台灣,出國,畢業前</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,離境,開始前,生效前,已畢業,回台灣,出國,畢業</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,離境,回台灣,出國</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,找不到工作,失業,未申報</t>
+  </si>
+  <si>
+    <t>post-OPT生效後、未回報工作期間，均計入“失業天數”。</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,兼職,兩份工作</t>
+  </si>
+  <si>
+    <t>EAD,遺失,弄丟,不見</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,結束,離境,待多久</t>
+  </si>
+  <si>
+    <t>opt,post-completion OPT,post-OPT,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,6 +561,39 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
+      <name val="Heiti TC Light"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -454,10 +612,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -467,8 +626,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50674,4 +50840,605 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G14" r:id="rId9"/>
+    <hyperlink ref="G24" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>